--- a/data/trans_bre/P34_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,46</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-5,79</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-35,78%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,91%</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-33,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>-26,73%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-19,24%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-30,21%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-21,75%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -4,7</t>
+          <t>-13,61; -3,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -2,42</t>
+          <t>-10,66; -2,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -0,56</t>
+          <t>-8,18; -0,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,44</t>
+          <t>-10,4; -1,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -19,3</t>
+          <t>-10,45; -1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -11,15</t>
+          <t>-11,24; -1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,92; -2,59</t>
+          <t>-46,92; -14,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,99; -5,11</t>
+          <t>-41,81; -10,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; -1,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-47,85; -8,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-32,23; -5,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-34,41; -6,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,35</t>
+          <t>-13,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,52%</t>
+          <t>-9,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,06%</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>-42,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,56%</t>
+          <t>-32,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-17,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-34,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-29,55%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -7,08</t>
+          <t>-19,32; -6,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -3,47</t>
+          <t>-14,02; -3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -0,35</t>
+          <t>-11,71; -0,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -1,6</t>
+          <t>-10,16; 2,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -26,24</t>
+          <t>-16,93; -1,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,74; -14,22</t>
+          <t>-15,67; -0,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -1,57</t>
+          <t>-55,18; -24,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,23; -7,13</t>
+          <t>-47,24; -15,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-41,38; -3,73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; 14,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-53,25; -5,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-53,44; -1,9</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-16,46</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-32,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-31,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-20,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-46,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 11,18</t>
+          <t>-7,7; 12,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 0,74</t>
+          <t>-16,21; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 4,62</t>
+          <t>-15,46; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-33,32; -2,92</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-33,64; 66,0</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 27,24</t>
+          <t>-27,44; 67,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-54,67; 12,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,08; 20,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-72,64; -12,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-6,28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-6,53</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-35,13%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-33,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-29,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-22,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-29,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-22,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,02%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -6,08</t>
+          <t>-13,23; -5,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -4,91</t>
+          <t>-10,69; -4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -2,11</t>
+          <t>-8,73; -1,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -2,55</t>
+          <t>-10,45; -2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,35; -24,35</t>
+          <t>-10,33; -2,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,84; -20,05</t>
+          <t>-10,71; -2,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,55; -10,19</t>
+          <t>-43,46; -22,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -9,8</t>
+          <t>-39,85; -18,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; -9,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,88; -12,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; -9,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; -10,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P34_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,4</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-33,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-26,73%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-19,24%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-30,21%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-19,64%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-21,75%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.92469131603475</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.701842997056476</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.37583501916192</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-5.782046213417003</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-5.79144097237489</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-6.344077052236724</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.370360889853443</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.281678189582085</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2119859615324548</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3068895874831761</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1963897616555674</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.2156880112423428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,61; -3,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; -2,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; -0,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,4; -1,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; -1,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,24; -1,89</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-46,92; -14,29</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-41,81; -10,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-36,07; -1,55</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-47,85; -8,29</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-32,23; -5,03</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-34,41; -6,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.63745218248684</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.30954169154951</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.60926085396752</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.63177309767629</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-10.44923716894963</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-11.21312134312159</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5039247254133129</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4247080537897561</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3769727904645098</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4843372442860794</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3222733390052134</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3414206213977422</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.386530183006052</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.57080821015945</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.5271390486375506</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-1.414608720515887</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-1.401434080542716</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-1.786634581372736</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.1858373114152774</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1207506454254395</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.02956256111377654</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.08308602351850589</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.05027439254175717</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.06474170206244556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-13,36</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-9,43</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,42</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-42,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-32,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-24,54%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-17,91%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-34,54%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-19,32; -6,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; -3,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,71; -0,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 2,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-16,93; -1,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,67; -0,41</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-55,18; -24,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,24; -15,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,38; -3,73</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-40,45; 14,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-53,25; -5,68</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-53,44; -1,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-13.07396458821194</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-8.802406704107216</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.1880012097382</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.696106768545848</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-9.429596542858009</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-7.621151747932942</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4224990480918244</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3332337553314818</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2471247933912714</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1800099613468651</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.3453989287904599</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.302107025122433</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-31,73%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-20,64%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-46,27%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-19.42581619091847</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.09410289917996</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.0524442907197</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.994762138035254</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-16.93286699380481</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-15.78746037102739</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5519334409729686</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4765714398723525</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.417928880451537</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4031716621853276</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.5325340481245804</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5387163155940597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 12,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,21; 1,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,46; 3,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-33,32; -2,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-27,44; 67,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-54,67; 12,05</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-48,08; 20,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-72,64; -12,43</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-5.721662200081841</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-4.02761875352524</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.142089126232649</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.265605764469932</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-1.253684686336497</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.7093160177132665</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.210431663760122</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.165861384068819</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.04908342050006685</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1429613536386923</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.05684876875558832</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.02965532605789271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,53</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,53</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-33,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-29,99%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-22,08%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-29,19%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-22,53%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.079241694740346</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.186303757996784</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.579471046506573</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-16.53919539384871</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1879453180931712</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2931685550471873</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1857060500723995</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4649659134419404</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; -5,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; -4,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; -1,96</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; -2,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; -2,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; -2,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-43,46; -22,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-39,85; -18,03</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; -9,24</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-42,88; -12,84</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-33,33; -9,52</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-34,84; -10,29</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.713101355688983</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.72243859172343</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.17297001554765</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-33.88074264395549</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2092519759135791</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5236967627102157</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4740930734139726</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7293879128478754</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.26966189848575</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.645872205593228</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.081251366394486</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-2.927897493697269</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8673893972662993</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1504802793785897</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2347867992031005</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.1142120371513293</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-9.561399589733371</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.613740875518291</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.20557376532203</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-6.35376599722357</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-6.525319307753072</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-6.54012520700801</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3436070327418846</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3054097862635139</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2273488137641056</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2947085761521285</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.2252875558172453</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2302488954027893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.47810281004782</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.81761501525481</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.924111381802527</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.55688554456365</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-10.33407298164195</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-10.66076938561715</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.44395816393893</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4010901013308043</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3562804481210872</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4255006149060381</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.3333422537663276</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3500552072156821</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-5.601978525061548</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-4.233517259344039</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.10951783457017</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-2.457230812834695</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-2.740029670068719</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-2.79315177281814</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2239199287152079</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1830399677834064</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.09991396848274117</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.1253503385621762</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.09521397740987497</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.1050230829458346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
